--- a/trunk/AddressBook/好帮手用户备份DB.xlsx
+++ b/trunk/AddressBook/好帮手用户备份DB.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,224 @@
   </si>
   <si>
     <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人详情表(contacts_info)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人ID（唯一,ID从2001开始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名(firstname + lastname)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_headImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别(1:男 0:女)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_home_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_work_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_extra_email</t>
+  </si>
+  <si>
+    <t>住宅邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他和自定义的邮件(Label1&amp;&amp;Content1||Label2&amp;&amp;Content2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_home_address</t>
+  </si>
+  <si>
+    <t>contacts_work_address</t>
+  </si>
+  <si>
+    <t>contacts_extra_address</t>
+  </si>
+  <si>
+    <t>住宅地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他和自定义的地址(Label1&amp;&amp;Content1||Label2&amp;&amp;Content2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_mobile_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_iphone_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_extra_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他和自定义的电话(Label1&amp;&amp;Content1||Label2&amp;&amp;Content2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_recommend_id</t>
+  </si>
+  <si>
+    <t>contacts_recommend_name</t>
+  </si>
+  <si>
+    <t>contacts_group_id</t>
+  </si>
+  <si>
+    <t>contacts_group_name</t>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组表(group)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人的联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组ID(从1101开始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config_id</t>
+  </si>
+  <si>
+    <t>config_copy_addressbook</t>
+  </si>
+  <si>
+    <t>config_first_use</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>系统配置设置(config)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置ID(从1001开始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次开启程序的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:已经拷贝了系统通讯录 0:没有拷贝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +385,32 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -185,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -208,13 +452,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,8 +643,72 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="47">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,18 +1001,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -698,9 +1181,483 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/trunk/AddressBook/好帮手用户备份DB.xlsx
+++ b/trunk/AddressBook/好帮手用户备份DB.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分组表(group)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分组名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,6 +361,24 @@
   </si>
   <si>
     <t>1:已经拷贝了系统通讯录 0:没有拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_birthday</t>
+  </si>
+  <si>
+    <t>contacts_constellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生日 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星座（1－12）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组表(group_info)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,8 +504,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -686,6 +706,7 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -709,6 +730,7 @@
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1003,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1453,7 +1475,7 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -1469,7 +1491,7 @@
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -1485,7 +1507,7 @@
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -1501,28 +1523,44 @@
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="E32" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:7">
@@ -1560,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -1576,12 +1614,12 @@
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="2:7">
       <c r="B43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="2:7">
@@ -1606,7 +1644,7 @@
     </row>
     <row r="45" spans="2:7">
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>34</v>
@@ -1619,15 +1657,15 @@
         <v>15</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="5" t="s">
@@ -1635,15 +1673,15 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="5" t="s">
@@ -1651,7 +1689,7 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/AddressBook/好帮手用户备份DB.xlsx
+++ b/trunk/AddressBook/好帮手用户备份DB.xlsx
@@ -4,14 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20620" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="联系人详情表" sheetId="2" r:id="rId2"/>
+    <sheet name="分组" sheetId="4" r:id="rId3"/>
+    <sheet name="标签" sheetId="15" r:id="rId4"/>
+    <sheet name="电话号码" sheetId="5" r:id="rId5"/>
+    <sheet name="URL" sheetId="7" r:id="rId6"/>
+    <sheet name="邮箱" sheetId="8" r:id="rId7"/>
+    <sheet name="地址" sheetId="9" r:id="rId8"/>
+    <sheet name="相关联系人" sheetId="10" r:id="rId9"/>
+    <sheet name="纪念日" sheetId="11" r:id="rId10"/>
+    <sheet name="即时信息" sheetId="13" r:id="rId11"/>
+    <sheet name="各种账号" sheetId="12" r:id="rId12"/>
+    <sheet name="各种证件" sheetId="14" r:id="rId13"/>
+    <sheet name="服务器和手机同步的过程" sheetId="6" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="160">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,14 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>char(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +382,278 @@
   </si>
   <si>
     <t>分组表(group_info)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码服务商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终更新日时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①修改数据，更新“联系人详情”表中的最终更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②备份请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③数据上传到服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④上传完毕后激活服务器端检测程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②同步请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③启动服务器端检测程序，将下面两种数据读取出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·创建时间 比 最终同步时间 大的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·最终更新时间 比 最终同步时间 大的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤读取数据库中的最终备份时间，检测“联系人详情”表中的最终更新时间比该时间大的数据，并将这些数据更新到服务器的数据库中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④将③中的数据更新到sqlite中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友情提醒：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步之前最好先做一次备份，这样可以保证您在本地和服务器上做的修改都能够反映进去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤下载数据到手机中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑥将同步下来的数据反映到用户表示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色字体为“备份”过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色字体为“同步”过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示index（在手机中表示的前后位置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签分类：1（手机号码标签），2（URL标签），3（地址标签）……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关联系人标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关联系人ID（和联系人详情表的ID一样）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念日标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时信息号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时信息标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前提醒种类（提前10天提醒等等，是否是标签？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人ID（外键）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人ID（唯一,ID从00001开始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（姓氏）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（名字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（前缀）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（名字pinyin）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（姓氏拼音）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（中间名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（后缀）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（昵称）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血型（A，B，AB，O）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人类型（1：手机添加，2：网站添加）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址（街道1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址（街道2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址（邮政编码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址（城市）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址（省）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址（国家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机换号时的最新号码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +661,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +698,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -653,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,6 +978,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,6 +1053,1024 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="流程图: 磁盘 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="190500"/>
+          <a:ext cx="647700" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>sqlite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="流程图: 磁盘 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191249" y="2857501"/>
+          <a:ext cx="914401" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>mssql/mysql</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="流程图: 直接访问存储器 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="352425"/>
+          <a:ext cx="914400" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>手机</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="流程图: 直接访问存储器 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="2943225"/>
+          <a:ext cx="914400" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服务器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144463</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="4"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="657225"/>
+          <a:ext cx="4629150" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>658813</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="657225" y="657225"/>
+          <a:ext cx="1588" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="流程图: 磁盘 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258174" y="1504950"/>
+          <a:ext cx="1028701" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>sqlite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据库（服务器版本）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="657225"/>
+          <a:ext cx="1409699" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="流程图: 过程 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11991975" y="1543050"/>
+          <a:ext cx="962025" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服务器端检测程序</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>77788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="4"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286875" y="1962150"/>
+          <a:ext cx="2705100" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="圆角矩形标注 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10658476" y="219076"/>
+          <a:ext cx="2647950" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 20508"/>
+            <a:gd name="adj2" fmla="val 81057"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注：对于删除的检测，需要首先看联系人的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>count</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>是否和最后一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的值相等，如果不相等需要循环检测少了哪几个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，然后在服务器的数据库中删除相应的数据。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201613</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="4"/>
+          <a:endCxn id="5" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="657225"/>
+          <a:ext cx="1588" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="4"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="3305175"/>
+          <a:ext cx="4619624" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="形状 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="3" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9327356" y="159544"/>
+          <a:ext cx="923926" cy="5367338"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="形状 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7115175" y="2381250"/>
+          <a:ext cx="5357813" cy="1038226"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11113</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接箭头连接符 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9286875" y="2066925"/>
+          <a:ext cx="2705100" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接箭头连接符 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6838951" y="876301"/>
+          <a:ext cx="1409699" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134938</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1571625" y="819150"/>
+          <a:ext cx="4629150" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1023,11 +2358,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G47"/>
+  <dimension ref="B2:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -1062,10 +2395,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -1082,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1">
         <v>100</v>
@@ -1092,7 +2425,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1172,10 +2505,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -1187,367 +2520,369 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="5" t="s">
-        <v>39</v>
+      <c r="E24" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="5" t="s">
-        <v>68</v>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
-        <v>76</v>
+        <v>37</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="7" t="s">
-        <v>69</v>
+      <c r="B29" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="5" t="s">
-        <v>71</v>
+      <c r="B31" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D31" s="8"/>
       <c r="E31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="8"/>
+      <c r="B32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
-        <v>91</v>
+        <v>37</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="5" t="s">
@@ -1555,133 +2890,133 @@
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" t="s">
-        <v>85</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="5" t="s">
@@ -1689,7 +3024,23 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1704,14 +3055,1017 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1"/>
+      <c r="C9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="4" spans="2:15">
+      <c r="D4" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="D6" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="L8" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="K11" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="C12" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="O13" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="D19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="L21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="L22" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="L23" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="C28" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="C29" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1"/>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1"/>
+      <c r="C25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1"/>
+      <c r="C26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1724,12 +4078,943 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1"/>
+      <c r="C9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1"/>
+      <c r="C12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1"/>
+      <c r="C13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/trunk/AddressBook/好帮手用户备份DB.xlsx
+++ b/trunk/AddressBook/好帮手用户备份DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20620" windowHeight="11640" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="786" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="233">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,23 +168,518 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>contacts_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名(firstname + lastname)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_headImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别(1:男 0:女)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_home_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_work_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_extra_email</t>
+  </si>
+  <si>
+    <t>住宅邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他和自定义的邮件(Label1&amp;&amp;Content1||Label2&amp;&amp;Content2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_home_address</t>
+  </si>
+  <si>
+    <t>contacts_work_address</t>
+  </si>
+  <si>
+    <t>contacts_extra_address</t>
+  </si>
+  <si>
+    <t>住宅地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他和自定义的地址(Label1&amp;&amp;Content1||Label2&amp;&amp;Content2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_mobile_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_iphone_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_extra_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他和自定义的电话(Label1&amp;&amp;Content1||Label2&amp;&amp;Content2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_recommend_id</t>
+  </si>
+  <si>
+    <t>contacts_recommend_name</t>
+  </si>
+  <si>
+    <t>contacts_group_id</t>
+  </si>
+  <si>
+    <t>contacts_group_name</t>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐人的联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组ID(从1101开始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config_id</t>
+  </si>
+  <si>
+    <t>config_copy_addressbook</t>
+  </si>
+  <si>
+    <t>config_first_use</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>系统配置设置(config)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置ID(从1001开始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次开启程序的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:已经拷贝了系统通讯录 0:没有拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_birthday</t>
+  </si>
+  <si>
+    <t>contacts_constellation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生日 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星座（1－12）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组表(group_info)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码服务商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终更新日时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①修改数据，更新“联系人详情”表中的最终更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②备份请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③数据上传到服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④上传完毕后激活服务器端检测程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②同步请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>③启动服务器端检测程序，将下面两种数据读取出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·创建时间 比 最终同步时间 大的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·最终更新时间 比 最终同步时间 大的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤读取数据库中的最终备份时间，检测“联系人详情”表中的最终更新时间比该时间大的数据，并将这些数据更新到服务器的数据库中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>④将③中的数据更新到sqlite中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友情提醒：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步之前最好先做一次备份，这样可以保证您在本地和服务器上做的修改都能够反映进去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑤下载数据到手机中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑥将同步下来的数据反映到用户表示界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色字体为“备份”过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色字体为“同步”过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示index（在手机中表示的前后位置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签分类：1（手机号码标签），2（URL标签），3（地址标签）……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关联系人标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关联系人ID（和联系人详情表的ID一样）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪念日标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时信息号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时信息标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人ID（外键）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（姓氏）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（名字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（前缀）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（姓氏拼音）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（中间名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（后缀）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（昵称）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血型（A，B，AB，O）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人类型（1：手机添加，2：网站添加）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址（邮政编码）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址（城市）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址（省）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址（国家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机换号时的最新号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_info</t>
+  </si>
+  <si>
     <t>联系人ID（唯一,ID从2001开始）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>contacts_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名(firstname + lastname)</t>
+    <t>联系人ID（唯一,ID从2001开始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_id</t>
+  </si>
+  <si>
+    <t>contacts_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_lastname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_firstname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名（名字拼音）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_firstnamephonetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_lastnamephonetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_middlename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_suffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_nickname</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,468 +687,212 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司</t>
+    <t>contacts_jobtitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_department</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>contacts_headImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>contacts_sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTEGER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别(1:男 0:女)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_home_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_work_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_extra_email</t>
-  </si>
-  <si>
-    <t>住宅邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他和自定义的邮件(Label1&amp;&amp;Content1||Label2&amp;&amp;Content2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_home_address</t>
-  </si>
-  <si>
-    <t>contacts_work_address</t>
-  </si>
-  <si>
-    <t>contacts_extra_address</t>
-  </si>
-  <si>
-    <t>住宅地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他和自定义的地址(Label1&amp;&amp;Content1||Label2&amp;&amp;Content2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_mobile_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_iphone_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_extra_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iphone电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他和自定义的电话(Label1&amp;&amp;Content1||Label2&amp;&amp;Content2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_recommend_id</t>
-  </si>
-  <si>
-    <t>contacts_recommend_name</t>
-  </si>
-  <si>
-    <t>contacts_group_id</t>
-  </si>
-  <si>
-    <t>contacts_group_name</t>
+  </si>
+  <si>
+    <t>contacts_ring</t>
+  </si>
+  <si>
+    <t>contacts_note</t>
+  </si>
+  <si>
+    <t>contacts_blood</t>
+  </si>
+  <si>
+    <t>性别(男,女)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contacts_add_type</t>
+  </si>
+  <si>
+    <t>contacts_creation</t>
+  </si>
+  <si>
+    <t>contacts_modification</t>
+  </si>
+  <si>
+    <t>group_info</t>
   </si>
   <si>
     <t>group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>group_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐人名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐人的联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组ID(从1101开始)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>config_id</t>
-  </si>
-  <si>
-    <t>config_copy_addressbook</t>
-  </si>
-  <si>
-    <t>config_first_use</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>系统配置设置(config)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统配置ID(从1001开始)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次开启程序的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:已经拷贝了系统通讯录 0:没有拷贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contacts_birthday</t>
-  </si>
-  <si>
-    <t>contacts_constellation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生日 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星座（1－12）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组表(group_info)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话号码标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话号码服务商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终更新日时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>①修改数据，更新“联系人详情”表中的最终更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>②备份请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>③数据上传到服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>④上传完毕后激活服务器端检测程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>②同步请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>③启动服务器端检测程序，将下面两种数据读取出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>·创建时间 比 最终同步时间 大的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>·最终更新时间 比 最终同步时间 大的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑤读取数据库中的最终备份时间，检测“联系人详情”表中的最终更新时间比该时间大的数据，并将这些数据更新到服务器的数据库中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>④将③中的数据更新到sqlite中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友情提醒：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步之前最好先做一次备份，这样可以保证您在本地和服务器上做的修改都能够反映进去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑤下载数据到手机中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑥将同步下来的数据反映到用户表示界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色字体为“备份”过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色字体为“同步”过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表示index（在手机中表示的前后位置）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签分类：1（手机号码标签），2（URL标签），3（地址标签）……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关联系人标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关联系人ID（和联系人详情表的ID一样）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪念日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪念日标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即时信息号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即时信息标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件号码标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前提醒种类（提前10天提醒等等，是否是标签？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人ID（外键）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人ID（唯一,ID从00001开始）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名（姓氏）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名（名字）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名（前缀）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名（名字pinyin）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名（姓氏拼音）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名（中间名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名（后缀）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名（昵称）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铃声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备忘录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血型（A，B，AB，O）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人类型（1：手机添加，2：网站添加）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址（街道1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址（街道2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址（邮政编码）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址（城市）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址（省）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址（国家）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机换号时的最新号码</t>
+  </si>
+  <si>
+    <t>group_creation</t>
+  </si>
+  <si>
+    <t>group_modification</t>
+  </si>
+  <si>
+    <t>tel_num</t>
+  </si>
+  <si>
+    <t>tel_label</t>
+  </si>
+  <si>
+    <t>tel_servicer</t>
+  </si>
+  <si>
+    <t>tel_index</t>
+  </si>
+  <si>
+    <t>tel_info</t>
+  </si>
+  <si>
+    <t>url_info</t>
+  </si>
+  <si>
+    <t>url_index</t>
+  </si>
+  <si>
+    <t>url_label</t>
+  </si>
+  <si>
+    <t>url_content</t>
+  </si>
+  <si>
+    <t>email_content</t>
+  </si>
+  <si>
+    <t>email_label</t>
+  </si>
+  <si>
+    <t>email_index</t>
+  </si>
+  <si>
+    <t>email_info</t>
+  </si>
+  <si>
+    <t>address_info</t>
+  </si>
+  <si>
+    <t>address_index</t>
+  </si>
+  <si>
+    <t>地址（街道）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_street</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantMessage_content</t>
+  </si>
+  <si>
+    <t>instantMessage_label</t>
+  </si>
+  <si>
+    <t>instantMessage_index</t>
+  </si>
+  <si>
+    <t>date_info</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>date_label</t>
+  </si>
+  <si>
+    <t>date_index</t>
+  </si>
+  <si>
+    <t>date_remind</t>
+  </si>
+  <si>
+    <t>提前提醒种类（0 - 7）(无，5分钟，15分钟……….)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantMessage_info</t>
+  </si>
+  <si>
+    <t>account_info</t>
+  </si>
+  <si>
+    <t>certificate_info</t>
+  </si>
+  <si>
+    <t>certificate_content</t>
+  </si>
+  <si>
+    <t>certificate_label</t>
+  </si>
+  <si>
+    <t>certificate_index</t>
+  </si>
+  <si>
+    <t>account_content</t>
+  </si>
+  <si>
+    <t>account_label</t>
+  </si>
+  <si>
+    <t>account_index</t>
+  </si>
+  <si>
+    <t>tag_info</t>
+  </si>
+  <si>
+    <t>tag_id</t>
+  </si>
+  <si>
+    <t>tag_name</t>
+  </si>
+  <si>
+    <t>tag_type</t>
+  </si>
+  <si>
+    <t>tag_creation</t>
+  </si>
+  <si>
+    <t>tag_modification</t>
+  </si>
+  <si>
+    <t>组ID(从1101开始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID(从1201开始)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +900,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,6 +963,12 @@
       <color rgb="FF002060"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -803,8 +1048,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,11 +1258,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="55">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1024,6 +1287,9 @@
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1048,6 +1314,9 @@
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2360,7 +2629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -2520,7 +2791,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -2533,7 +2804,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -2602,287 +2873,287 @@
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="5" t="s">
@@ -2890,15 +3161,15 @@
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="5" t="s">
@@ -2906,12 +3177,12 @@
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="2:7">
@@ -2936,7 +3207,7 @@
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2949,12 +3220,12 @@
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2965,12 +3236,12 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="2:7">
@@ -2995,7 +3266,7 @@
     </row>
     <row r="46" spans="2:7">
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -3008,15 +3279,15 @@
         <v>15</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="5" t="s">
@@ -3024,15 +3295,15 @@
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="2:7">
       <c r="B48" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="5" t="s">
@@ -3040,7 +3311,7 @@
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3057,9 +3328,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -3069,6 +3342,11 @@
     <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+    </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3090,7 +3368,9 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -3100,13 +3380,15 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="C4" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -3114,11 +3396,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3128,11 +3412,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3142,11 +3428,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="14" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
@@ -3156,35 +3444,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
-      <c r="C8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1"/>
-      <c r="C9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3200,18 +3460,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+    </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3233,7 +3500,9 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -3243,11 +3512,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -3257,11 +3528,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3271,11 +3544,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3285,35 +3560,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
-      <c r="C7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
-      <c r="C8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3329,9 +3576,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -3341,6 +3590,11 @@
     <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+    </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3362,7 +3616,9 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -3372,11 +3628,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -3386,11 +3644,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3400,11 +3660,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3414,35 +3676,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
-      <c r="C7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
-      <c r="C8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3458,9 +3692,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -3470,6 +3706,11 @@
     <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>218</v>
+      </c>
+    </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3491,7 +3732,9 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -3501,11 +3744,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -3515,11 +3760,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3529,11 +3776,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3543,35 +3792,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
-      <c r="C7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
-      <c r="C8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3595,87 +3816,87 @@
   <sheetData>
     <row r="4" spans="2:15">
       <c r="D4" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="D6" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="L8" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="K11" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="C12" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="O13" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="D19" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="L21" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="2:13">
       <c r="L22" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:13">
       <c r="L23" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="C28" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="C29" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3693,18 +3914,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G26"/>
+  <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+    </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -3726,7 +3954,9 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -3738,11 +3968,13 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -3752,11 +3984,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3766,11 +4000,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -3780,11 +4016,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
@@ -3794,11 +4032,13 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
@@ -3808,11 +4048,13 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
@@ -3822,11 +4064,13 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
@@ -3836,11 +4080,13 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3850,11 +4096,13 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
@@ -3864,11 +4112,13 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
@@ -3878,11 +4128,13 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
@@ -3892,13 +4144,15 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
@@ -3906,13 +4160,15 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
+      <c r="B16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
@@ -3920,11 +4176,13 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="C17" s="9" t="s">
         <v>33</v>
       </c>
@@ -3934,11 +4192,13 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C18" s="9" t="s">
         <v>33</v>
       </c>
@@ -3952,7 +4212,9 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="C19" s="9" t="s">
         <v>33</v>
       </c>
@@ -3962,13 +4224,15 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="C20" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
@@ -3976,11 +4240,13 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="C21" s="9" t="s">
         <v>33</v>
       </c>
@@ -3990,13 +4256,15 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="C22" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9" t="s">
@@ -4004,11 +4272,13 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="C23" s="9" t="s">
         <v>33</v>
       </c>
@@ -4018,11 +4288,13 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="C24" s="9" t="s">
         <v>33</v>
       </c>
@@ -4030,17 +4302,17 @@
       <c r="E24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="C25" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -4052,9 +4324,11 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="C26" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -4062,12 +4336,13 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4078,9 +4353,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G6"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4090,6 +4367,11 @@
     <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+    </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4111,7 +4393,9 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -4123,11 +4407,13 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -4137,13 +4423,15 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="C5" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -4155,9 +4443,11 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C6" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -4165,7 +4455,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4181,9 +4471,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4193,6 +4485,11 @@
     <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+    </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4214,7 +4511,9 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -4226,11 +4525,13 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>93</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -4240,11 +4541,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -4254,13 +4557,15 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="C6" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -4272,9 +4577,11 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="C7" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -4282,7 +4589,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4298,9 +4605,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4310,6 +4619,11 @@
     <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+    </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4331,7 +4645,9 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -4341,11 +4657,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -4355,11 +4673,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -4369,11 +4689,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -4383,11 +4705,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
@@ -4397,35 +4721,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
-      <c r="C8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1"/>
-      <c r="C9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4441,9 +4737,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4453,6 +4751,11 @@
     <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+    </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4474,7 +4777,9 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -4484,11 +4789,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -4498,11 +4805,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -4512,11 +4821,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -4526,35 +4837,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
-      <c r="C7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
-      <c r="C8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4570,9 +4853,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4582,6 +4867,11 @@
     <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>197</v>
+      </c>
+    </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4603,7 +4893,9 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -4613,11 +4905,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -4627,11 +4921,13 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -4641,11 +4937,13 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -4655,35 +4953,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
-      <c r="C7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
-      <c r="C8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4699,9 +4969,192 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4742,7 +5195,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -4756,7 +5209,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -4770,7 +5223,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -4784,212 +5237,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1"/>
-      <c r="C12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1"/>
-      <c r="C13" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1"/>
       <c r="C7" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -5003,7 +5257,7 @@
     <row r="8" spans="2:7">
       <c r="B8" s="1"/>
       <c r="C8" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -5011,7 +5265,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/AddressBook/好帮手用户备份DB.xlsx
+++ b/trunk/AddressBook/好帮手用户备份DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="786" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="786" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -632,10 +632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>联系人ID（唯一,ID从2001开始）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>contacts_id</t>
   </si>
   <si>
@@ -893,6 +889,10 @@
   </si>
   <si>
     <t>标签ID(从1201开始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人ID（唯一,ID从1开始）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3344,7 +3344,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3369,7 +3369,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>91</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -3476,7 +3476,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3501,7 +3501,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -3592,7 +3592,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3617,7 +3617,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -3708,7 +3708,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3733,7 +3733,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -3916,8 +3916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -3968,12 +3968,12 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -4005,7 +4005,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -4032,12 +4032,12 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>41</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>33</v>
@@ -4176,12 +4176,12 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>33</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>33</v>
@@ -4272,12 +4272,12 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>33</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>33</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>91</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>91</v>
@@ -4369,7 +4369,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -4394,7 +4394,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -4407,12 +4407,12 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>91</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>91</v>
@@ -4473,7 +4473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4487,7 +4487,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -4512,7 +4512,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -4525,12 +4525,12 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>91</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>91</v>
@@ -4621,7 +4621,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -4646,7 +4646,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -4753,7 +4753,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -4778,7 +4778,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -4794,7 +4794,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -4869,7 +4869,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -4894,7 +4894,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -4985,7 +4985,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -5010,7 +5010,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -5037,12 +5037,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -5058,7 +5058,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>

--- a/trunk/AddressBook/好帮手用户备份DB.xlsx
+++ b/trunk/AddressBook/好帮手用户备份DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="786" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="786" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="236">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标签名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,10 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>即时信息号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>即时信息标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -811,9 +803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>instantMessage_content</t>
-  </si>
-  <si>
     <t>instantMessage_label</t>
   </si>
   <si>
@@ -893,6 +882,29 @@
   </si>
   <si>
     <t>联系人ID（唯一,ID从1开始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间(timeIntervalSince1970)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终更新日时(timeIntervalSince1970)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantMessage_username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantMessage_service</t>
+  </si>
+  <si>
+    <t>即时信息用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时信息服务商</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,8 +1060,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1262,7 +1280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="57">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1290,6 +1308,7 @@
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1317,6 +1336,7 @@
     <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2629,7 +2649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -2791,7 +2811,7 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -2804,7 +2824,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -2873,7 +2893,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -3331,7 +3351,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3344,7 +3364,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3369,7 +3389,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -3380,15 +3400,15 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -3396,12 +3416,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -3412,12 +3432,12 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -3428,12 +3448,12 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -3444,7 +3464,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3460,10 +3480,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3476,7 +3496,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3501,7 +3521,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -3512,12 +3532,12 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -3528,15 +3548,15 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -3544,12 +3564,12 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -3560,12 +3580,29 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3592,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3617,7 +3654,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -3628,12 +3665,12 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -3644,12 +3681,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -3660,12 +3697,12 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -3676,7 +3713,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3708,7 +3745,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3733,7 +3770,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -3744,12 +3781,12 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -3760,12 +3797,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -3776,12 +3813,12 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -3792,7 +3829,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3816,87 +3853,87 @@
   <sheetData>
     <row r="4" spans="2:15">
       <c r="D4" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="D6" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="L8" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="K11" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="C12" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="O13" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="D19" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="L21" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="2:13">
       <c r="L22" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:13">
       <c r="L23" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
         <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="C28" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="C29" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3916,8 +3953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3930,7 +3967,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3955,7 +3992,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -3968,12 +4005,12 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -3984,12 +4021,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -4000,12 +4037,12 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -4016,12 +4053,12 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -4032,12 +4069,12 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -4048,12 +4085,12 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -4064,12 +4101,12 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -4080,12 +4117,12 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -4096,12 +4133,12 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -4117,7 +4154,7 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -4128,12 +4165,12 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -4144,12 +4181,12 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>41</v>
@@ -4165,7 +4202,7 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>33</v>
@@ -4176,12 +4213,12 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>33</v>
@@ -4192,7 +4229,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -4232,7 +4269,7 @@
         <v>86</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
@@ -4245,7 +4282,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>33</v>
@@ -4256,7 +4293,7 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="2:7">
@@ -4272,12 +4309,12 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>33</v>
@@ -4288,12 +4325,12 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>33</v>
@@ -4304,15 +4341,15 @@
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
@@ -4320,15 +4357,15 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
@@ -4336,7 +4373,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4356,7 +4393,7 @@
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4369,7 +4406,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -4394,7 +4431,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -4407,12 +4444,12 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -4423,15 +4460,15 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -4444,10 +4481,10 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -4455,7 +4492,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4474,7 +4511,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4487,7 +4524,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -4512,7 +4549,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -4525,12 +4562,12 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -4541,12 +4578,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -4557,15 +4594,15 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -4578,10 +4615,10 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -4589,7 +4626,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4608,7 +4645,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4621,7 +4658,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -4646,7 +4683,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -4657,12 +4694,12 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -4673,12 +4710,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -4689,12 +4726,12 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -4705,12 +4742,12 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -4721,7 +4758,7 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4753,7 +4790,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -4778,7 +4815,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -4789,12 +4826,12 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -4805,12 +4842,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -4821,12 +4858,12 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -4837,7 +4874,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4869,7 +4906,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -4894,7 +4931,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -4905,12 +4942,12 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -4921,12 +4958,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -4937,12 +4974,12 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -4953,7 +4990,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4985,7 +5022,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -5010,7 +5047,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -5021,12 +5058,12 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -5037,12 +5074,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -5053,12 +5090,12 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -5069,12 +5106,12 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -5085,12 +5122,12 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -5101,12 +5138,12 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -5117,12 +5154,12 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -5133,7 +5170,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -5153,7 +5190,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5195,7 +5232,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -5209,7 +5246,7 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -5223,7 +5260,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -5237,13 +5274,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1"/>
       <c r="C7" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -5257,7 +5294,7 @@
     <row r="8" spans="2:7">
       <c r="B8" s="1"/>
       <c r="C8" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
@@ -5265,7 +5302,7 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/AddressBook/好帮手用户备份DB.xlsx
+++ b/trunk/AddressBook/好帮手用户备份DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="786" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="786" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="265">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -806,106 +806,218 @@
     <t>instantMessage_label</t>
   </si>
   <si>
+    <t>date_info</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>date_label</t>
+  </si>
+  <si>
+    <t>date_remind</t>
+  </si>
+  <si>
+    <t>提前提醒种类（0 - 7）(无，5分钟，15分钟……….)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantMessage_info</t>
+  </si>
+  <si>
+    <t>account_info</t>
+  </si>
+  <si>
+    <t>certificate_info</t>
+  </si>
+  <si>
+    <t>certificate_content</t>
+  </si>
+  <si>
+    <t>certificate_label</t>
+  </si>
+  <si>
+    <t>account_content</t>
+  </si>
+  <si>
+    <t>account_label</t>
+  </si>
+  <si>
+    <t>tag_info</t>
+  </si>
+  <si>
+    <t>tag_id</t>
+  </si>
+  <si>
+    <t>tag_name</t>
+  </si>
+  <si>
+    <t>tag_type</t>
+  </si>
+  <si>
+    <t>tag_creation</t>
+  </si>
+  <si>
+    <t>tag_modification</t>
+  </si>
+  <si>
+    <t>组ID(从1101开始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID(从1201开始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人ID（唯一,ID从1开始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间(timeIntervalSince1970)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终更新日时(timeIntervalSince1970)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantMessage_username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantMessage_service</t>
+  </si>
+  <si>
+    <t>即时信息用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即时信息服务商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_creation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel_modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>最终更新日时</t>
+  </si>
+  <si>
+    <t>url_creation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_creation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_creation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_creation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantMessage_creation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantMessage_modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate_creation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate_modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_creation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_modification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relate_id</t>
+  </si>
+  <si>
+    <t>relate_label</t>
+  </si>
+  <si>
+    <t>relate_index</t>
+  </si>
+  <si>
+    <t>relate_creation</t>
+  </si>
+  <si>
+    <t>relate_modification</t>
+  </si>
+  <si>
+    <t>date_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:基本  1：高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>instantMessage_index</t>
-  </si>
-  <si>
-    <t>date_info</t>
-  </si>
-  <si>
-    <t>date_time</t>
-  </si>
-  <si>
-    <t>date_label</t>
-  </si>
-  <si>
-    <t>date_index</t>
-  </si>
-  <si>
-    <t>date_remind</t>
-  </si>
-  <si>
-    <t>提前提醒种类（0 - 7）(无，5分钟，15分钟……….)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instantMessage_info</t>
-  </si>
-  <si>
-    <t>account_info</t>
-  </si>
-  <si>
-    <t>certificate_info</t>
-  </si>
-  <si>
-    <t>certificate_content</t>
-  </si>
-  <si>
-    <t>certificate_label</t>
-  </si>
-  <si>
-    <t>certificate_index</t>
-  </si>
-  <si>
-    <t>account_content</t>
-  </si>
-  <si>
-    <t>account_label</t>
-  </si>
-  <si>
-    <t>account_index</t>
-  </si>
-  <si>
-    <t>tag_info</t>
-  </si>
-  <si>
-    <t>tag_id</t>
-  </si>
-  <si>
-    <t>tag_name</t>
-  </si>
-  <si>
-    <t>tag_type</t>
-  </si>
-  <si>
-    <t>tag_creation</t>
-  </si>
-  <si>
-    <t>tag_modification</t>
-  </si>
-  <si>
-    <t>组ID(从1101开始)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID(从1201开始)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人ID（唯一,ID从1开始）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间(timeIntervalSince1970)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终更新日时(timeIntervalSince1970)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instantMessage_username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instantMessage_service</t>
-  </si>
-  <si>
-    <t>即时信息用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即时信息服务商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantMessage_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1172,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,8 +1344,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,8 +1457,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="79">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1309,6 +1490,17 @@
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1337,6 +1529,17 @@
     <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3348,10 +3551,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3364,7 +3567,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3405,7 +3608,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>81</v>
@@ -3421,7 +3624,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -3437,7 +3640,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -3448,15 +3651,15 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -3467,9 +3670,58 @@
         <v>113</v>
       </c>
     </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3480,23 +3732,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3537,7 +3789,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -3548,12 +3800,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3564,7 +3816,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -3585,7 +3837,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -3597,6 +3849,54 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3613,10 +3913,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3629,7 +3929,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3670,7 +3970,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -3686,7 +3986,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -3702,7 +4002,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -3714,6 +4014,38 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3729,23 +4061,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -3786,7 +4118,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -3802,7 +4134,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -3818,7 +4150,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -3832,9 +4164,42 @@
         <v>113</v>
       </c>
     </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3953,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4005,7 +4370,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -4357,7 +4722,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -4373,7 +4738,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4393,7 +4758,7 @@
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4444,7 +4809,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -4511,7 +4876,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4524,7 +4889,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="2:7">
@@ -4549,7 +4914,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -4562,12 +4927,12 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -4583,7 +4948,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -4599,7 +4964,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>81</v>
@@ -4615,7 +4980,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>81</v>
@@ -4632,6 +4997,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4642,10 +5008,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4761,6 +5127,38 @@
         <v>113</v>
       </c>
     </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4774,10 +5172,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4877,6 +5275,38 @@
         <v>113</v>
       </c>
     </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4890,10 +5320,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4993,6 +5423,38 @@
         <v>113</v>
       </c>
     </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5006,10 +5468,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G10"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5171,6 +5633,38 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5187,10 +5681,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5222,7 +5716,9 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -5236,7 +5732,9 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -5250,7 +5748,9 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -5264,7 +5764,9 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -5278,13 +5780,15 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="C7" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
+      <c r="E7" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -5292,18 +5796,23 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="C8" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
+      <c r="E8" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>95</v>
       </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="E9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/AddressBook/好帮手用户备份DB.xlsx
+++ b/trunk/AddressBook/好帮手用户备份DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="786" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="786" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="263">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,9 +846,6 @@
     <t>tag_info</t>
   </si>
   <si>
-    <t>tag_id</t>
-  </si>
-  <si>
     <t>tag_name</t>
   </si>
   <si>
@@ -862,10 +859,6 @@
   </si>
   <si>
     <t>组ID(从1101开始)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID(从1201开始)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1172,8 +1165,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1461,7 +1460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="81">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1501,6 +1500,7 @@
     <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1540,6 +1540,7 @@
     <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3656,10 +3657,10 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
@@ -3672,7 +3673,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>32</v>
@@ -3683,39 +3684,39 @@
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3789,7 +3790,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -3800,12 +3801,12 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -3837,7 +3838,7 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -3853,7 +3854,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>32</v>
@@ -3864,39 +3865,39 @@
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4002,7 +4003,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -4018,34 +4019,34 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4063,7 +4064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -4150,7 +4151,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -4166,34 +4167,34 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4370,7 +4371,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -4722,7 +4723,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -4738,7 +4739,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4809,7 +4810,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -4873,10 +4874,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4927,7 +4928,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>224</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -4943,15 +4944,15 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
+      <c r="C5" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -4959,7 +4960,7 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -4975,22 +4976,6 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5129,7 +5114,7 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>81</v>
@@ -5145,7 +5130,7 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>81</v>
@@ -5277,34 +5262,34 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5425,34 +5410,34 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5637,34 +5622,34 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5733,7 +5718,7 @@
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -5749,7 +5734,7 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -5765,7 +5750,7 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -5781,14 +5766,14 @@
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -5797,14 +5782,14 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">

--- a/trunk/AddressBook/好帮手用户备份DB.xlsx
+++ b/trunk/AddressBook/好帮手用户备份DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="786" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14480" tabRatio="786" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="264">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1011,6 +1011,10 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>date_identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1165,8 +1169,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1460,7 +1476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="85">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1501,6 +1517,8 @@
     <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1541,6 +1559,8 @@
     <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3552,10 +3572,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G10"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3592,27 +3612,25 @@
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="1" t="s">
-        <v>152</v>
+      <c r="B3" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>81</v>
+        <v>152</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -3620,15 +3638,15 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>206</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -3636,86 +3654,102 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="14" t="s">
-        <v>209</v>
+      <c r="G6" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>113</v>
+      <c r="G7" s="14" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="15"/>
+        <v>255</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4319,7 +4353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -4876,8 +4910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
